--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2560EDB5-DFDF-4553-A26F-93F16ECD0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073ECB1C-DB9D-4B86-908D-8AC0A0811967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId3"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -4167,7 +4167,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073ECB1C-DB9D-4B86-908D-8AC0A0811967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C2689-B244-4712-A88A-7D918CEAD3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1097">
   <si>
     <t>Instrucciones para diligenciar el formulario</t>
   </si>
@@ -3518,6 +3518,27 @@
     <t>No es obligatorio, si tu cliente tiene dígito de verificación, diligenciar este espacio
 Ej: 1
 Ej: 2</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>EL COMERCIO SA</t>
+  </si>
+  <si>
+    <t>felipe@gmail.com</t>
+  </si>
+  <si>
+    <t>elcomercio@gmail.com</t>
+  </si>
+  <si>
+    <t>Cra 10</t>
+  </si>
+  <si>
+    <t>Cra 20</t>
   </si>
 </sst>
 </file>
@@ -4167,22 +4188,22 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="12" width="31.5703125" customWidth="1"/>
-    <col min="13" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="12" width="31.5546875" customWidth="1"/>
+    <col min="13" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1">
@@ -4279,17 +4300,35 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1091</v>
+      </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14">
+        <v>121212121</v>
+      </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="H4" s="23" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3100200323</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="6">
@@ -4297,15 +4336,33 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F5" s="14">
+        <v>890890890</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6012030</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="6">
@@ -18609,9 +18666,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{CEF17AA2-8648-4835-90A7-C44EC9A50701}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{1A944A30-EC6A-44B9-A72A-48959FABBCDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -18647,7 +18708,7 @@
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="25" t="s">
@@ -18696,14 +18757,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
-    <col min="10" max="25" width="10.7109375" customWidth="1"/>
+    <col min="5" max="8" width="10.6640625" customWidth="1"/>
+    <col min="10" max="25" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">

--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C2689-B244-4712-A88A-7D918CEAD3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2AC9A-6F6D-4BDD-A096-7B36E4E79B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1090">
   <si>
     <t>Instrucciones para diligenciar el formulario</t>
   </si>
@@ -3518,27 +3518,6 @@
     <t>No es obligatorio, si tu cliente tiene dígito de verificación, diligenciar este espacio
 Ej: 1
 Ej: 2</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>EL COMERCIO SA</t>
-  </si>
-  <si>
-    <t>felipe@gmail.com</t>
-  </si>
-  <si>
-    <t>elcomercio@gmail.com</t>
-  </si>
-  <si>
-    <t>Cra 10</t>
-  </si>
-  <si>
-    <t>Cra 20</t>
   </si>
 </sst>
 </file>
@@ -4188,22 +4167,22 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1"/>
-    <col min="10" max="12" width="31.5546875" customWidth="1"/>
-    <col min="13" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="12" width="31.5703125" customWidth="1"/>
+    <col min="13" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1">
@@ -4300,35 +4279,17 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1091</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="14">
-        <v>121212121</v>
-      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="23" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I4" s="11">
-        <v>3100200323</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>1095</v>
-      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="6">
@@ -4336,33 +4297,15 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F5" s="14">
-        <v>890890890</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I5" s="11">
-        <v>6012030</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>1096</v>
-      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="6">
@@ -18666,13 +18609,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{CEF17AA2-8648-4835-90A7-C44EC9A50701}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{1A944A30-EC6A-44B9-A72A-48959FABBCDC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -18708,7 +18647,7 @@
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="25" t="s">
@@ -18757,14 +18696,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="8" width="10.6640625" customWidth="1"/>
-    <col min="10" max="25" width="10.6640625" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">

--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2AC9A-6F6D-4BDD-A096-7B36E4E79B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD38E50-8AAA-40D3-9C8E-297EE1888718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -4167,7 +4167,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://topdrive-my.sharepoint.com/personal/carlos_reyes_topdrivegroup_com/Documents/Escritorio/Carlos/Desarrollo/ecopFront-Desarrollo/public/DownloadExcels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD38E50-8AAA-40D3-9C8E-297EE1888718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8DD38E50-8AAA-40D3-9C8E-297EE1888718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DD69F7-DF62-41EA-9AD3-842A0D4DC700}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4167,7 +4167,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -4344,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4360,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4376,7 +4376,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4392,7 +4392,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4408,7 +4408,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -4424,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -4440,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4456,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4472,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4488,7 +4488,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4504,7 +4504,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -4520,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -4536,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -4552,7 +4552,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -4568,7 +4568,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -4584,7 +4584,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -4600,7 +4600,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -4616,7 +4616,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -4632,7 +4632,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -4648,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -4664,7 +4664,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -4680,7 +4680,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -4696,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -4712,7 +4712,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4728,7 +4728,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -4744,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -4760,7 +4760,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -4776,7 +4776,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -4792,7 +4792,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -4808,7 +4808,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -4824,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -4840,7 +4840,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -4856,7 +4856,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -4872,7 +4872,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -4888,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -4904,7 +4904,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -4920,7 +4920,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -4936,7 +4936,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -4952,7 +4952,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -4968,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -4984,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -5000,7 +5000,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -5016,7 +5016,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -5032,7 +5032,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -5048,7 +5048,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -5064,7 +5064,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -5080,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -5096,7 +5096,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -5112,7 +5112,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -5128,7 +5128,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -5144,7 +5144,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -5160,7 +5160,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -5176,7 +5176,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -5192,7 +5192,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -5208,7 +5208,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -5224,7 +5224,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -5240,7 +5240,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -5256,7 +5256,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -5272,7 +5272,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -5288,7 +5288,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -5304,7 +5304,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5320,7 +5320,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -5336,7 +5336,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -5352,7 +5352,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -5368,7 +5368,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -5384,7 +5384,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -5400,7 +5400,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -5416,7 +5416,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -5432,7 +5432,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -5448,7 +5448,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -5464,7 +5464,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -5480,7 +5480,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -5496,7 +5496,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -5512,7 +5512,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
@@ -5528,7 +5528,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -5544,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -5560,7 +5560,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -5576,7 +5576,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -5592,7 +5592,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -5608,7 +5608,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -5624,7 +5624,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -5640,7 +5640,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -5656,7 +5656,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -5672,7 +5672,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -5688,7 +5688,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -5704,7 +5704,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -5720,7 +5720,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -5736,7 +5736,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -5752,7 +5752,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -5768,7 +5768,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -5784,7 +5784,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -5800,7 +5800,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -5816,7 +5816,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -5832,7 +5832,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -5848,7 +5848,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -5864,7 +5864,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -5880,7 +5880,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -5896,7 +5896,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -5912,7 +5912,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -5928,7 +5928,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -5944,7 +5944,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -5960,7 +5960,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -5976,7 +5976,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -5992,7 +5992,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -6008,7 +6008,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -6024,7 +6024,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -6040,7 +6040,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -6056,7 +6056,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -6072,7 +6072,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -6088,7 +6088,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -6104,7 +6104,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -6120,7 +6120,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
@@ -6136,7 +6136,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -6152,7 +6152,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
@@ -6168,7 +6168,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -6184,7 +6184,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -6200,7 +6200,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
@@ -6216,7 +6216,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -6248,7 +6248,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -6264,7 +6264,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -6280,7 +6280,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -6296,7 +6296,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
@@ -6312,7 +6312,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
+      <c r="C131" s="11"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -6328,7 +6328,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
+      <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
@@ -6344,7 +6344,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
@@ -6360,7 +6360,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
@@ -6376,7 +6376,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -6392,7 +6392,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
@@ -6408,7 +6408,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -6424,7 +6424,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
@@ -6440,7 +6440,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
@@ -6456,7 +6456,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="11"/>
-      <c r="C140" s="12"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -6472,7 +6472,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="11"/>
-      <c r="C141" s="12"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
@@ -6488,7 +6488,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
@@ -6504,7 +6504,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="11"/>
-      <c r="C143" s="12"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -6520,7 +6520,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -6536,7 +6536,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
@@ -6552,7 +6552,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
@@ -6568,7 +6568,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
@@ -6584,7 +6584,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
@@ -6600,7 +6600,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
@@ -6616,7 +6616,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
@@ -6632,7 +6632,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
@@ -6648,7 +6648,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
@@ -6664,7 +6664,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
@@ -6680,7 +6680,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
@@ -6696,7 +6696,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
@@ -6712,7 +6712,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
@@ -6728,7 +6728,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
+      <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
@@ -6744,7 +6744,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
+      <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
@@ -6760,7 +6760,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="11"/>
-      <c r="C159" s="12"/>
+      <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
@@ -6776,7 +6776,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="11"/>
-      <c r="C160" s="12"/>
+      <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
@@ -6792,7 +6792,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
@@ -6808,7 +6808,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="11"/>
-      <c r="C162" s="12"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
@@ -6824,7 +6824,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="11"/>
-      <c r="C163" s="12"/>
+      <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
@@ -6840,7 +6840,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
+      <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
@@ -6856,7 +6856,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="12"/>
+      <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
@@ -6872,7 +6872,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="11"/>
-      <c r="C166" s="12"/>
+      <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -6888,7 +6888,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="11"/>
-      <c r="C167" s="12"/>
+      <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -6904,7 +6904,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="11"/>
-      <c r="C168" s="12"/>
+      <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -6920,7 +6920,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="11"/>
-      <c r="C169" s="12"/>
+      <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
@@ -6936,7 +6936,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="11"/>
-      <c r="C170" s="12"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
@@ -6952,7 +6952,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="12"/>
+      <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
@@ -6968,7 +6968,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="11"/>
-      <c r="C172" s="12"/>
+      <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
@@ -6984,7 +6984,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
+      <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
@@ -7000,7 +7000,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="11"/>
-      <c r="C174" s="12"/>
+      <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
@@ -7016,7 +7016,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
@@ -7032,7 +7032,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
+      <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
@@ -7048,7 +7048,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
+      <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
@@ -7064,7 +7064,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
+      <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
@@ -7080,7 +7080,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="11"/>
-      <c r="C179" s="12"/>
+      <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
@@ -7096,7 +7096,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="11"/>
-      <c r="C180" s="12"/>
+      <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
@@ -7112,7 +7112,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
+      <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
@@ -7128,7 +7128,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
+      <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
@@ -7144,7 +7144,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
+      <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
@@ -7160,7 +7160,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="11"/>
-      <c r="C184" s="12"/>
+      <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
@@ -7176,7 +7176,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="11"/>
-      <c r="C185" s="12"/>
+      <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
@@ -7192,7 +7192,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
+      <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
@@ -7208,7 +7208,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="11"/>
-      <c r="C187" s="12"/>
+      <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
@@ -7224,7 +7224,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="11"/>
-      <c r="C188" s="12"/>
+      <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
@@ -7240,7 +7240,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
@@ -7256,7 +7256,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
+      <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
@@ -7272,7 +7272,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="11"/>
-      <c r="C191" s="12"/>
+      <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
@@ -7288,7 +7288,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
+      <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
@@ -7304,7 +7304,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="11"/>
-      <c r="C193" s="12"/>
+      <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
@@ -7320,7 +7320,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
+      <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
@@ -7336,7 +7336,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
+      <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
@@ -7352,7 +7352,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="11"/>
-      <c r="C196" s="12"/>
+      <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
@@ -7368,7 +7368,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="11"/>
-      <c r="C197" s="12"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
@@ -7384,7 +7384,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="11"/>
-      <c r="C198" s="12"/>
+      <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
@@ -7400,7 +7400,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="11"/>
-      <c r="C199" s="12"/>
+      <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
@@ -7416,7 +7416,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
+      <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
@@ -7432,7 +7432,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="11"/>
-      <c r="C201" s="12"/>
+      <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -7448,7 +7448,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="11"/>
-      <c r="C202" s="12"/>
+      <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
@@ -7464,7 +7464,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="11"/>
-      <c r="C203" s="12"/>
+      <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
@@ -18625,7 +18625,7 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$34</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J203 C7:C203</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7B19CF4-592D-4454-A5A1-52EDDACF947E}">
           <x14:formula1>

--- a/public/DownloadExcels/Clientes.xlsx
+++ b/public/DownloadExcels/Clientes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://topdrive-my.sharepoint.com/personal/carlos_reyes_topdrivegroup_com/Documents/Escritorio/Carlos/Desarrollo/ecopFront-Desarrollo/public/DownloadExcels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8DD38E50-8AAA-40D3-9C8E-297EE1888718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DD69F7-DF62-41EA-9AD3-842A0D4DC700}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0458C-005A-4635-A369-BC56046229E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
-    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId2"/>
     <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -27,218 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1101">
   <si>
     <t>Instrucciones para diligenciar el formulario</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  Escribe el nombre de la sede SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">2. Si el nombre de la sede tiene dos palabras, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-3. Registra la sede </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">UNA (1) SOLA VEZ.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">4. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">B, DIGITA EL NOMBRE DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>5. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> C y D, SELECCIONA EL  DEPARTAMENTO Y LA CIUDAD DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>6. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> E, DIGITA LA DIRECCIÓN DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">8. En las columnas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F,  DIGITA EL CORREO ELECTRÓNICO DE LA SEDE.
-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">G, DIGITA EL NÚMERO DE TELÉFONO O CELULAR DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">10. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">H, ESCRIBE EL NOMBRE DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>11. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> I, ESCRIBE EL APELLIDO DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>12. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> J, SELECCIONA EL TIPO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>13. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
-    </r>
   </si>
   <si>
     <t>#</t>
@@ -3518,6 +3309,42 @@
     <t>No es obligatorio, si tu cliente tiene dígito de verificación, diligenciar este espacio
 Ej: 1
 Ej: 2</t>
+  </si>
+  <si>
+    <t>1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  Escribe el nombre de la sede SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.</t>
+  </si>
+  <si>
+    <t>2. Si el nombre de la sede tiene dos palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t>3. Registra la sede UNA (1) SOLA VEZ.</t>
+  </si>
+  <si>
+    <t>4. En la columna B, DIGITA EL NOMBRE DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>5. En la columna C y D, SELECCIONA EL  DEPARTAMENTO Y LA CIUDAD DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>6. En la columna E, DIGITA LA DIRECCIÓN DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>8. En las columnas F,  DIGITA EL CORREO ELECTRÓNICO DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>9. En la columna G, DIGITA EL NÚMERO DE TELÉFONO O CELULAR DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>10. En la columna H, ESCRIBE EL NOMBRE DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>11. En la columna I, ESCRIBE EL APELLIDO DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>12. En la columna J, SELECCIONA EL TIPO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>13. En la columna K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3355,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3543,11 +3370,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3594,12 +3416,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3831,71 +3647,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3906,9 +3722,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4163,10 +3976,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDAA99-3185-47A7-BDEA-165E01ABD3EC}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="125.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4187,7 +4096,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1">
       <c r="A1" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4204,75 +4113,75 @@
     <row r="2" spans="1:12" ht="36" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="10" t="s">
         <v>1077</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>1078</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
@@ -18639,55 +18548,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDAA99-3185-47A7-BDEA-165E01ABD3EC}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H1117"/>
@@ -18708,13 +18568,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
       <c r="B1" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -18723,5693 +18583,5693 @@
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.25" customHeight="1">
       <c r="B3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1">
       <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="14.25" customHeight="1">
       <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
       <c r="C6" s="21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="14.25" customHeight="1">
       <c r="C7" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.25" customHeight="1">
       <c r="C8" s="21" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="C9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" customHeight="1">
       <c r="C10" s="21" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.25" customHeight="1">
       <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" customHeight="1">
       <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" customHeight="1">
       <c r="C13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" customHeight="1">
       <c r="C14" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" customHeight="1">
       <c r="C15" s="21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="14.25" customHeight="1">
       <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="14.25" customHeight="1">
       <c r="C17" s="21" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="14.25" customHeight="1">
       <c r="C18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="14.25" customHeight="1">
       <c r="C19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="14.25" customHeight="1">
       <c r="C20" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="14.25" customHeight="1">
       <c r="C21" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="14.25" customHeight="1">
       <c r="C22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="14.25" customHeight="1">
       <c r="C23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="14.25" customHeight="1">
       <c r="C24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="14.25" customHeight="1">
       <c r="C25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="14.25" customHeight="1">
       <c r="C26" s="21" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="14.25" customHeight="1">
       <c r="C27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="14.25" customHeight="1">
       <c r="C28" s="21" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="14.25" customHeight="1">
       <c r="C29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="14.25" customHeight="1">
       <c r="C30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="14.25" customHeight="1">
       <c r="C31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="14.25" customHeight="1">
       <c r="C32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="14.25" customHeight="1">
       <c r="C33" s="21" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="14.25" customHeight="1">
       <c r="C34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="14.25" customHeight="1">
       <c r="D35" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="14.25" customHeight="1">
       <c r="D36" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="14.25" customHeight="1">
       <c r="D37" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="14.25" customHeight="1">
       <c r="D38" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="14.25" customHeight="1">
       <c r="D39" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="14.25" customHeight="1">
       <c r="D40" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="14.25" customHeight="1">
       <c r="D41" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="14.25" customHeight="1">
       <c r="D42" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="14.25" customHeight="1">
       <c r="D43" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="14.25" customHeight="1">
       <c r="D44" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="14.25" customHeight="1">
       <c r="D45" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="14.25" customHeight="1">
       <c r="D46" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="14.25" customHeight="1">
       <c r="D47" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="14.25" customHeight="1">
       <c r="D48" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="4:4" ht="14.25" customHeight="1">
       <c r="D49" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="4:4" ht="14.25" customHeight="1">
       <c r="D50" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="4:4" ht="14.25" customHeight="1">
       <c r="D51" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="4:4" ht="14.25" customHeight="1">
       <c r="D52" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="4:4" ht="14.25" customHeight="1">
       <c r="D53" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="14.25" customHeight="1">
       <c r="D54" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="4:4" ht="14.25" customHeight="1">
       <c r="D55" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="14.25" customHeight="1">
       <c r="D56" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="14.25" customHeight="1">
       <c r="D57" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="14.25" customHeight="1">
       <c r="D58" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="4:4" ht="14.25" customHeight="1">
       <c r="D59" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="14.25" customHeight="1">
       <c r="D60" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="4:4" ht="14.25" customHeight="1">
       <c r="D61" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="4:4" ht="14.25" customHeight="1">
       <c r="D62" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="4:4" ht="14.25" customHeight="1">
       <c r="D63" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="4:4" ht="14.25" customHeight="1">
       <c r="D64" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="14.25" customHeight="1">
       <c r="D65" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="14.25" customHeight="1">
       <c r="D66" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="14.25" customHeight="1">
       <c r="D67" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="14.25" customHeight="1">
       <c r="D68" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="14.25" customHeight="1">
       <c r="D69" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="4:4" ht="14.25" customHeight="1">
       <c r="D70" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="4:4" ht="14.25" customHeight="1">
       <c r="D71" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="4:4" ht="14.25" customHeight="1">
       <c r="D72" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="4:4" ht="14.25" customHeight="1">
       <c r="D73" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="4:4" ht="14.25" customHeight="1">
       <c r="D74" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="4:4" ht="14.25" customHeight="1">
       <c r="D75" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="4:4" ht="14.25" customHeight="1">
       <c r="D76" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="4:4" ht="14.25" customHeight="1">
       <c r="D77" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="4:4" ht="14.25" customHeight="1">
       <c r="D78" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="4:4" ht="14.25" customHeight="1">
       <c r="D79" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="4:4" ht="14.25" customHeight="1">
       <c r="D80" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="4:4" ht="14.25" customHeight="1">
       <c r="D81" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="4:4" ht="14.25" customHeight="1">
       <c r="D82" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="4:4" ht="14.25" customHeight="1">
       <c r="D83" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="4:4" ht="14.25" customHeight="1">
       <c r="D84" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="4:4" ht="14.25" customHeight="1">
       <c r="D85" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="4:4" ht="14.25" customHeight="1">
       <c r="D86" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="4:4" ht="14.25" customHeight="1">
       <c r="D87" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="14.25" customHeight="1">
       <c r="D88" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="14.25" customHeight="1">
       <c r="D89" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="14.25" customHeight="1">
       <c r="D90" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="14.25" customHeight="1">
       <c r="D91" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="4:4" ht="14.25" customHeight="1">
       <c r="D92" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="4:4" ht="14.25" customHeight="1">
       <c r="D93" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="4:4" ht="14.25" customHeight="1">
       <c r="D94" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="4:4" ht="14.25" customHeight="1">
       <c r="D95" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="4:4" ht="14.25" customHeight="1">
       <c r="D96" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="4:4" ht="14.25" customHeight="1">
       <c r="D97" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="14.25" customHeight="1">
       <c r="D98" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="14.25" customHeight="1">
       <c r="D99" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="4:4" ht="14.25" customHeight="1">
       <c r="D100" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="14.25" customHeight="1">
       <c r="D101" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="14.25" customHeight="1">
       <c r="D102" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="4:4" ht="14.25" customHeight="1">
       <c r="D103" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="4:4" ht="14.25" customHeight="1">
       <c r="D104" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="4:4" ht="14.25" customHeight="1">
       <c r="D105" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="4:4" ht="14.25" customHeight="1">
       <c r="D106" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="4:4" ht="14.25" customHeight="1">
       <c r="D107" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="4:4" ht="14.25" customHeight="1">
       <c r="D108" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="4:4" ht="14.25" customHeight="1">
       <c r="D109" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="14.25" customHeight="1">
       <c r="D110" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="4:4" ht="14.25" customHeight="1">
       <c r="D111" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="4:4" ht="14.25" customHeight="1">
       <c r="D112" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="14.25" customHeight="1">
       <c r="D113" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="14.25" customHeight="1">
       <c r="D114" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="14.25" customHeight="1">
       <c r="D115" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="14.25" customHeight="1">
       <c r="D116" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="14.25" customHeight="1">
       <c r="D117" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="14.25" customHeight="1">
       <c r="D118" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="14.25" customHeight="1">
       <c r="D119" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="14.25" customHeight="1">
       <c r="D120" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="14.25" customHeight="1">
       <c r="D121" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="14.25" customHeight="1">
       <c r="D122" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="14.25" customHeight="1">
       <c r="D123" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="14.25" customHeight="1">
       <c r="D124" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="14.25" customHeight="1">
       <c r="D125" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="14.25" customHeight="1">
       <c r="D126" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="14.25" customHeight="1">
       <c r="D127" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="14.25" customHeight="1">
       <c r="D128" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="14.25" customHeight="1">
       <c r="D129" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="14.25" customHeight="1">
       <c r="D130" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="14.25" customHeight="1">
       <c r="D131" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="14.25" customHeight="1">
       <c r="D132" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="14.25" customHeight="1">
       <c r="D133" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="14.25" customHeight="1">
       <c r="D134" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="14.25" customHeight="1">
       <c r="D135" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="14.25" customHeight="1">
       <c r="D136" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="14.25" customHeight="1">
       <c r="D137" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="14.25" customHeight="1">
       <c r="D138" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="14.25" customHeight="1">
       <c r="D139" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="14.25" customHeight="1">
       <c r="D140" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="14.25" customHeight="1">
       <c r="D141" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="14.25" customHeight="1">
       <c r="D142" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="14.25" customHeight="1">
       <c r="D143" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="14.25" customHeight="1">
       <c r="D144" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="14.25" customHeight="1">
       <c r="D145" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="14.25" customHeight="1">
       <c r="D146" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="14.25" customHeight="1">
       <c r="D147" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="14.25" customHeight="1">
       <c r="D148" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="14.25" customHeight="1">
       <c r="D149" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="14.25" customHeight="1">
       <c r="D150" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="14.25" customHeight="1">
       <c r="D151" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="14.25" customHeight="1">
       <c r="D152" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="14.25" customHeight="1">
       <c r="D153" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="14.25" customHeight="1">
       <c r="D154" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="14.25" customHeight="1">
       <c r="D155" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="14.25" customHeight="1">
       <c r="D156" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="14.25" customHeight="1">
       <c r="D157" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="14.25" customHeight="1">
       <c r="D158" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="14.25" customHeight="1">
       <c r="D159" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="14.25" customHeight="1">
       <c r="D160" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="14.25" customHeight="1">
       <c r="D161" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="14.25" customHeight="1">
       <c r="D162" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="14.25" customHeight="1">
       <c r="D163" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="14.25" customHeight="1">
       <c r="D164" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="14.25" customHeight="1">
       <c r="D165" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="14.25" customHeight="1">
       <c r="D166" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="14.25" customHeight="1">
       <c r="D167" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="14.25" customHeight="1">
       <c r="D168" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="14.25" customHeight="1">
       <c r="D169" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="14.25" customHeight="1">
       <c r="D170" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="14.25" customHeight="1">
       <c r="D171" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="14.25" customHeight="1">
       <c r="D172" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="14.25" customHeight="1">
       <c r="D173" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="14.25" customHeight="1">
       <c r="D174" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="14.25" customHeight="1">
       <c r="D175" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="14.25" customHeight="1">
       <c r="D176" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="14.25" customHeight="1">
       <c r="D177" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="14.25" customHeight="1">
       <c r="D178" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="14.25" customHeight="1">
       <c r="D179" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="14.25" customHeight="1">
       <c r="D180" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="14.25" customHeight="1">
       <c r="D181" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="14.25" customHeight="1">
       <c r="D182" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="14.25" customHeight="1">
       <c r="D183" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="14.25" customHeight="1">
       <c r="D184" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="14.25" customHeight="1">
       <c r="D185" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="14.25" customHeight="1">
       <c r="D186" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="14.25" customHeight="1">
       <c r="D187" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="14.25" customHeight="1">
       <c r="D188" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="14.25" customHeight="1">
       <c r="D189" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="14.25" customHeight="1">
       <c r="D190" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="14.25" customHeight="1">
       <c r="D191" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="14.25" customHeight="1">
       <c r="D192" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="14.25" customHeight="1">
       <c r="D193" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="14.25" customHeight="1">
       <c r="D194" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="14.25" customHeight="1">
       <c r="D195" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="14.25" customHeight="1">
       <c r="D196" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="14.25" customHeight="1">
       <c r="D197" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="14.25" customHeight="1">
       <c r="D198" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="14.25" customHeight="1">
       <c r="D199" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="14.25" customHeight="1">
       <c r="D200" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="14.25" customHeight="1">
       <c r="D201" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="14.25" customHeight="1">
       <c r="D202" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="14.25" customHeight="1">
       <c r="D203" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="14.25" customHeight="1">
       <c r="D204" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="14.25" customHeight="1">
       <c r="D205" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="14.25" customHeight="1">
       <c r="D206" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="14.25" customHeight="1">
       <c r="D207" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="14.25" customHeight="1">
       <c r="D208" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="14.25" customHeight="1">
       <c r="D209" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="14.25" customHeight="1">
       <c r="D210" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="14.25" customHeight="1">
       <c r="D211" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="14.25" customHeight="1">
       <c r="D212" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="14.25" customHeight="1">
       <c r="D213" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="14.25" customHeight="1">
       <c r="D214" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="14.25" customHeight="1">
       <c r="D215" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="14.25" customHeight="1">
       <c r="D216" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="14.25" customHeight="1">
       <c r="D217" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="14.25" customHeight="1">
       <c r="D218" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="14.25" customHeight="1">
       <c r="D219" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="14.25" customHeight="1">
       <c r="D220" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="14.25" customHeight="1">
       <c r="D221" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="14.25" customHeight="1">
       <c r="D222" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="14.25" customHeight="1">
       <c r="D223" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="14.25" customHeight="1">
       <c r="D224" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="14.25" customHeight="1">
       <c r="D225" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="14.25" customHeight="1">
       <c r="D226" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="14.25" customHeight="1">
       <c r="D227" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="14.25" customHeight="1">
       <c r="D228" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="14.25" customHeight="1">
       <c r="D229" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="14.25" customHeight="1">
       <c r="D230" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="14.25" customHeight="1">
       <c r="D231" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="14.25" customHeight="1">
       <c r="D232" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="14.25" customHeight="1">
       <c r="D233" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="14.25" customHeight="1">
       <c r="D234" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="14.25" customHeight="1">
       <c r="D235" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="14.25" customHeight="1">
       <c r="D236" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="14.25" customHeight="1">
       <c r="D237" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="14.25" customHeight="1">
       <c r="D238" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="14.25" customHeight="1">
       <c r="D239" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="14.25" customHeight="1">
       <c r="D240" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="14.25" customHeight="1">
       <c r="D241" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="14.25" customHeight="1">
       <c r="D242" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="14.25" customHeight="1">
       <c r="D243" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="14.25" customHeight="1">
       <c r="D244" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="14.25" customHeight="1">
       <c r="D245" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="14.25" customHeight="1">
       <c r="D246" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="14.25" customHeight="1">
       <c r="D247" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="14.25" customHeight="1">
       <c r="D248" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="14.25" customHeight="1">
       <c r="D249" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="14.25" customHeight="1">
       <c r="D250" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="14.25" customHeight="1">
       <c r="D251" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="14.25" customHeight="1">
       <c r="D252" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="14.25" customHeight="1">
       <c r="D253" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="14.25" customHeight="1">
       <c r="D254" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="14.25" customHeight="1">
       <c r="D255" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="14.25" customHeight="1">
       <c r="D256" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="14.25" customHeight="1">
       <c r="D257" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="14.25" customHeight="1">
       <c r="D258" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="14.25" customHeight="1">
       <c r="D259" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="14.25" customHeight="1">
       <c r="D260" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="14.25" customHeight="1">
       <c r="D261" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="14.25" customHeight="1">
       <c r="D262" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="14.25" customHeight="1">
       <c r="D263" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="14.25" customHeight="1">
       <c r="D264" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="14.25" customHeight="1">
       <c r="D265" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="14.25" customHeight="1">
       <c r="D266" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="14.25" customHeight="1">
       <c r="D267" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="14.25" customHeight="1">
       <c r="D268" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="14.25" customHeight="1">
       <c r="D269" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="14.25" customHeight="1">
       <c r="D270" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="14.25" customHeight="1">
       <c r="D271" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="14.25" customHeight="1">
       <c r="D272" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="14.25" customHeight="1">
       <c r="D273" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="14.25" customHeight="1">
       <c r="D274" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="14.25" customHeight="1">
       <c r="D275" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="14.25" customHeight="1">
       <c r="D276" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="14.25" customHeight="1">
       <c r="D277" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="14.25" customHeight="1">
       <c r="D278" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="14.25" customHeight="1">
       <c r="D279" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="14.25" customHeight="1">
       <c r="D280" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="14.25" customHeight="1">
       <c r="D281" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="14.25" customHeight="1">
       <c r="D282" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="14.25" customHeight="1">
       <c r="D283" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="14.25" customHeight="1">
       <c r="D284" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="14.25" customHeight="1">
       <c r="D285" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="14.25" customHeight="1">
       <c r="D286" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="14.25" customHeight="1">
       <c r="D287" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="14.25" customHeight="1">
       <c r="D288" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="14.25" customHeight="1">
       <c r="D289" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="14.25" customHeight="1">
       <c r="D290" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="14.25" customHeight="1">
       <c r="D291" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="14.25" customHeight="1">
       <c r="D292" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="14.25" customHeight="1">
       <c r="D293" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="14.25" customHeight="1">
       <c r="D294" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="14.25" customHeight="1">
       <c r="D295" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="14.25" customHeight="1">
       <c r="D296" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="14.25" customHeight="1">
       <c r="D297" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="14.25" customHeight="1">
       <c r="D298" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="14.25" customHeight="1">
       <c r="D299" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="14.25" customHeight="1">
       <c r="D300" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="14.25" customHeight="1">
       <c r="D301" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="14.25" customHeight="1">
       <c r="D302" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="14.25" customHeight="1">
       <c r="D303" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="14.25" customHeight="1">
       <c r="D304" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="14.25" customHeight="1">
       <c r="D305" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="14.25" customHeight="1">
       <c r="D306" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="14.25" customHeight="1">
       <c r="D307" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="14.25" customHeight="1">
       <c r="D308" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="14.25" customHeight="1">
       <c r="D309" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="14.25" customHeight="1">
       <c r="D310" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="14.25" customHeight="1">
       <c r="D311" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="14.25" customHeight="1">
       <c r="D312" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="14.25" customHeight="1">
       <c r="D313" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="14.25" customHeight="1">
       <c r="D314" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="14.25" customHeight="1">
       <c r="D315" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="14.25" customHeight="1">
       <c r="D316" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="14.25" customHeight="1">
       <c r="D317" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="14.25" customHeight="1">
       <c r="D318" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="14.25" customHeight="1">
       <c r="D319" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="14.25" customHeight="1">
       <c r="D320" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="14.25" customHeight="1">
       <c r="D321" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="14.25" customHeight="1">
       <c r="D322" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="14.25" customHeight="1">
       <c r="D323" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="14.25" customHeight="1">
       <c r="D324" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="14.25" customHeight="1">
       <c r="D325" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="14.25" customHeight="1">
       <c r="D326" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="14.25" customHeight="1">
       <c r="D327" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="14.25" customHeight="1">
       <c r="D328" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="14.25" customHeight="1">
       <c r="D329" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="14.25" customHeight="1">
       <c r="D330" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="14.25" customHeight="1">
       <c r="D331" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="14.25" customHeight="1">
       <c r="D332" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="14.25" customHeight="1">
       <c r="D333" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="14.25" customHeight="1">
       <c r="D334" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="14.25" customHeight="1">
       <c r="D335" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="14.25" customHeight="1">
       <c r="D336" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="14.25" customHeight="1">
       <c r="D337" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="14.25" customHeight="1">
       <c r="D338" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="14.25" customHeight="1">
       <c r="D339" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="14.25" customHeight="1">
       <c r="D340" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="14.25" customHeight="1">
       <c r="D341" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="14.25" customHeight="1">
       <c r="D342" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="14.25" customHeight="1">
       <c r="D343" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="14.25" customHeight="1">
       <c r="D344" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="14.25" customHeight="1">
       <c r="D345" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="14.25" customHeight="1">
       <c r="D346" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="14.25" customHeight="1">
       <c r="D347" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="14.25" customHeight="1">
       <c r="D348" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="14.25" customHeight="1">
       <c r="D349" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="14.25" customHeight="1">
       <c r="D350" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="14.25" customHeight="1">
       <c r="D351" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="14.25" customHeight="1">
       <c r="D352" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="14.25" customHeight="1">
       <c r="D353" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="14.25" customHeight="1">
       <c r="D354" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="14.25" customHeight="1">
       <c r="D355" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="14.25" customHeight="1">
       <c r="D356" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="14.25" customHeight="1">
       <c r="D357" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="14.25" customHeight="1">
       <c r="D358" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="14.25" customHeight="1">
       <c r="D359" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="14.25" customHeight="1">
       <c r="D360" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="14.25" customHeight="1">
       <c r="D361" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="14.25" customHeight="1">
       <c r="D362" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="14.25" customHeight="1">
       <c r="D363" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="14.25" customHeight="1">
       <c r="D364" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="14.25" customHeight="1">
       <c r="D365" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="14.25" customHeight="1">
       <c r="D366" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="14.25" customHeight="1">
       <c r="D367" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="14.25" customHeight="1">
       <c r="D368" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="14.25" customHeight="1">
       <c r="D369" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="14.25" customHeight="1">
       <c r="D370" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="14.25" customHeight="1">
       <c r="D371" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="14.25" customHeight="1">
       <c r="D372" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="14.25" customHeight="1">
       <c r="D373" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="14.25" customHeight="1">
       <c r="D374" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="14.25" customHeight="1">
       <c r="D375" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="14.25" customHeight="1">
       <c r="D376" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="14.25" customHeight="1">
       <c r="D377" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="14.25" customHeight="1">
       <c r="D378" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="14.25" customHeight="1">
       <c r="D379" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="14.25" customHeight="1">
       <c r="D380" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="14.25" customHeight="1">
       <c r="D381" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="14.25" customHeight="1">
       <c r="D382" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="14.25" customHeight="1">
       <c r="D383" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="14.25" customHeight="1">
       <c r="D384" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="14.25" customHeight="1">
       <c r="D385" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="14.25" customHeight="1">
       <c r="D386" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="387" spans="4:4" ht="14.25" customHeight="1">
       <c r="D387" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="4:4" ht="14.25" customHeight="1">
       <c r="D388" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="389" spans="4:4" ht="14.25" customHeight="1">
       <c r="D389" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="4:4" ht="14.25" customHeight="1">
       <c r="D390" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="4:4" ht="14.25" customHeight="1">
       <c r="D391" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="4:4" ht="14.25" customHeight="1">
       <c r="D392" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="4:4" ht="14.25" customHeight="1">
       <c r="D393" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="394" spans="4:4" ht="14.25" customHeight="1">
       <c r="D394" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="395" spans="4:4" ht="14.25" customHeight="1">
       <c r="D395" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="396" spans="4:4" ht="14.25" customHeight="1">
       <c r="D396" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="397" spans="4:4" ht="14.25" customHeight="1">
       <c r="D397" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="398" spans="4:4" ht="14.25" customHeight="1">
       <c r="D398" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="399" spans="4:4" ht="14.25" customHeight="1">
       <c r="D399" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="400" spans="4:4" ht="14.25" customHeight="1">
       <c r="D400" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="401" spans="4:4" ht="14.25" customHeight="1">
       <c r="D401" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="402" spans="4:4" ht="14.25" customHeight="1">
       <c r="D402" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="403" spans="4:4" ht="14.25" customHeight="1">
       <c r="D403" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="404" spans="4:4" ht="14.25" customHeight="1">
       <c r="D404" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="4:4" ht="14.25" customHeight="1">
       <c r="D405" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="4:4" ht="14.25" customHeight="1">
       <c r="D406" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="4:4" ht="14.25" customHeight="1">
       <c r="D407" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="408" spans="4:4" ht="14.25" customHeight="1">
       <c r="D408" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="409" spans="4:4" ht="14.25" customHeight="1">
       <c r="D409" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="410" spans="4:4" ht="14.25" customHeight="1">
       <c r="D410" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="411" spans="4:4" ht="14.25" customHeight="1">
       <c r="D411" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="4:4" ht="14.25" customHeight="1">
       <c r="D412" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="413" spans="4:4" ht="14.25" customHeight="1">
       <c r="D413" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="414" spans="4:4" ht="14.25" customHeight="1">
       <c r="D414" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="415" spans="4:4" ht="14.25" customHeight="1">
       <c r="D415" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="416" spans="4:4" ht="14.25" customHeight="1">
       <c r="D416" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="417" spans="4:4" ht="14.25" customHeight="1">
       <c r="D417" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="418" spans="4:4" ht="14.25" customHeight="1">
       <c r="D418" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="419" spans="4:4" ht="14.25" customHeight="1">
       <c r="D419" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="420" spans="4:4" ht="14.25" customHeight="1">
       <c r="D420" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="421" spans="4:4" ht="14.25" customHeight="1">
       <c r="D421" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="422" spans="4:4" ht="14.25" customHeight="1">
       <c r="D422" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="423" spans="4:4" ht="14.25" customHeight="1">
       <c r="D423" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="424" spans="4:4" ht="14.25" customHeight="1">
       <c r="D424" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="425" spans="4:4" ht="14.25" customHeight="1">
       <c r="D425" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="4:4" ht="14.25" customHeight="1">
       <c r="D426" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="427" spans="4:4" ht="14.25" customHeight="1">
       <c r="D427" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="4:4" ht="14.25" customHeight="1">
       <c r="D428" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="429" spans="4:4" ht="14.25" customHeight="1">
       <c r="D429" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="4:4" ht="14.25" customHeight="1">
       <c r="D430" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="4:4" ht="14.25" customHeight="1">
       <c r="D431" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="432" spans="4:4" ht="14.25" customHeight="1">
       <c r="D432" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="433" spans="4:4" ht="14.25" customHeight="1">
       <c r="D433" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="434" spans="4:4" ht="14.25" customHeight="1">
       <c r="D434" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="435" spans="4:4" ht="14.25" customHeight="1">
       <c r="D435" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="436" spans="4:4" ht="14.25" customHeight="1">
       <c r="D436" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="437" spans="4:4" ht="14.25" customHeight="1">
       <c r="D437" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="4:4" ht="14.25" customHeight="1">
       <c r="D438" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="439" spans="4:4" ht="14.25" customHeight="1">
       <c r="D439" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="440" spans="4:4" ht="14.25" customHeight="1">
       <c r="D440" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="441" spans="4:4" ht="14.25" customHeight="1">
       <c r="D441" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="442" spans="4:4" ht="14.25" customHeight="1">
       <c r="D442" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="443" spans="4:4" ht="14.25" customHeight="1">
       <c r="D443" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="444" spans="4:4" ht="14.25" customHeight="1">
       <c r="D444" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="445" spans="4:4" ht="14.25" customHeight="1">
       <c r="D445" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="446" spans="4:4" ht="14.25" customHeight="1">
       <c r="D446" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="447" spans="4:4" ht="14.25" customHeight="1">
       <c r="D447" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="448" spans="4:4" ht="14.25" customHeight="1">
       <c r="D448" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="449" spans="4:4" ht="14.25" customHeight="1">
       <c r="D449" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="450" spans="4:4" ht="14.25" customHeight="1">
       <c r="D450" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="451" spans="4:4" ht="14.25" customHeight="1">
       <c r="D451" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="452" spans="4:4" ht="14.25" customHeight="1">
       <c r="D452" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="4:4" ht="14.25" customHeight="1">
       <c r="D453" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="454" spans="4:4" ht="14.25" customHeight="1">
       <c r="D454" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="455" spans="4:4" ht="14.25" customHeight="1">
       <c r="D455" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="456" spans="4:4" ht="14.25" customHeight="1">
       <c r="D456" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="457" spans="4:4" ht="14.25" customHeight="1">
       <c r="D457" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="458" spans="4:4" ht="14.25" customHeight="1">
       <c r="D458" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="459" spans="4:4" ht="14.25" customHeight="1">
       <c r="D459" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460" spans="4:4" ht="14.25" customHeight="1">
       <c r="D460" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="461" spans="4:4" ht="14.25" customHeight="1">
       <c r="D461" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="462" spans="4:4" ht="14.25" customHeight="1">
       <c r="D462" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="463" spans="4:4" ht="14.25" customHeight="1">
       <c r="D463" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="464" spans="4:4" ht="14.25" customHeight="1">
       <c r="D464" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="465" spans="4:4" ht="14.25" customHeight="1">
       <c r="D465" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="466" spans="4:4" ht="14.25" customHeight="1">
       <c r="D466" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="467" spans="4:4" ht="14.25" customHeight="1">
       <c r="D467" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="468" spans="4:4" ht="14.25" customHeight="1">
       <c r="D468" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="469" spans="4:4" ht="14.25" customHeight="1">
       <c r="D469" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="470" spans="4:4" ht="14.25" customHeight="1">
       <c r="D470" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="471" spans="4:4" ht="14.25" customHeight="1">
       <c r="D471" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="472" spans="4:4" ht="14.25" customHeight="1">
       <c r="D472" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="4:4" ht="14.25" customHeight="1">
       <c r="D473" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="474" spans="4:4" ht="14.25" customHeight="1">
       <c r="D474" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="4:4" ht="14.25" customHeight="1">
       <c r="D475" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="476" spans="4:4" ht="14.25" customHeight="1">
       <c r="D476" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="477" spans="4:4" ht="14.25" customHeight="1">
       <c r="D477" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="478" spans="4:4" ht="14.25" customHeight="1">
       <c r="D478" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="479" spans="4:4" ht="14.25" customHeight="1">
       <c r="D479" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="480" spans="4:4" ht="14.25" customHeight="1">
       <c r="D480" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="481" spans="4:4" ht="14.25" customHeight="1">
       <c r="D481" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="482" spans="4:4" ht="14.25" customHeight="1">
       <c r="D482" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="483" spans="4:4" ht="14.25" customHeight="1">
       <c r="D483" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="484" spans="4:4" ht="14.25" customHeight="1">
       <c r="D484" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="485" spans="4:4" ht="14.25" customHeight="1">
       <c r="D485" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="486" spans="4:4" ht="14.25" customHeight="1">
       <c r="D486" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="487" spans="4:4" ht="14.25" customHeight="1">
       <c r="D487" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="488" spans="4:4" ht="14.25" customHeight="1">
       <c r="D488" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="489" spans="4:4" ht="14.25" customHeight="1">
       <c r="D489" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="490" spans="4:4" ht="14.25" customHeight="1">
       <c r="D490" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="491" spans="4:4" ht="14.25" customHeight="1">
       <c r="D491" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="492" spans="4:4" ht="14.25" customHeight="1">
       <c r="D492" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="493" spans="4:4" ht="14.25" customHeight="1">
       <c r="D493" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="494" spans="4:4" ht="14.25" customHeight="1">
       <c r="D494" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="495" spans="4:4" ht="14.25" customHeight="1">
       <c r="D495" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="496" spans="4:4" ht="14.25" customHeight="1">
       <c r="D496" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="497" spans="4:4" ht="14.25" customHeight="1">
       <c r="D497" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="498" spans="4:4" ht="14.25" customHeight="1">
       <c r="D498" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="499" spans="4:4" ht="14.25" customHeight="1">
       <c r="D499" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="500" spans="4:4" ht="14.25" customHeight="1">
       <c r="D500" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="501" spans="4:4" ht="14.25" customHeight="1">
       <c r="D501" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="502" spans="4:4" ht="14.25" customHeight="1">
       <c r="D502" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="503" spans="4:4" ht="14.25" customHeight="1">
       <c r="D503" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="504" spans="4:4" ht="14.25" customHeight="1">
       <c r="D504" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="505" spans="4:4" ht="14.25" customHeight="1">
       <c r="D505" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="506" spans="4:4" ht="14.25" customHeight="1">
       <c r="D506" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="507" spans="4:4" ht="14.25" customHeight="1">
       <c r="D507" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="508" spans="4:4" ht="14.25" customHeight="1">
       <c r="D508" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="509" spans="4:4" ht="14.25" customHeight="1">
       <c r="D509" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="510" spans="4:4" ht="14.25" customHeight="1">
       <c r="D510" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="4:4" ht="14.25" customHeight="1">
       <c r="D511" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="512" spans="4:4" ht="14.25" customHeight="1">
       <c r="D512" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="4:4" ht="14.25" customHeight="1">
       <c r="D513" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="514" spans="4:4" ht="14.25" customHeight="1">
       <c r="D514" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="515" spans="4:4" ht="14.25" customHeight="1">
       <c r="D515" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="516" spans="4:4" ht="14.25" customHeight="1">
       <c r="D516" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="517" spans="4:4" ht="14.25" customHeight="1">
       <c r="D517" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="518" spans="4:4" ht="14.25" customHeight="1">
       <c r="D518" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" spans="4:4" ht="14.25" customHeight="1">
       <c r="D519" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="520" spans="4:4" ht="14.25" customHeight="1">
       <c r="D520" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="521" spans="4:4" ht="14.25" customHeight="1">
       <c r="D521" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="522" spans="4:4" ht="14.25" customHeight="1">
       <c r="D522" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="523" spans="4:4" ht="14.25" customHeight="1">
       <c r="D523" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="524" spans="4:4" ht="14.25" customHeight="1">
       <c r="D524" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="525" spans="4:4" ht="14.25" customHeight="1">
       <c r="D525" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="526" spans="4:4" ht="14.25" customHeight="1">
       <c r="D526" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="527" spans="4:4" ht="14.25" customHeight="1">
       <c r="D527" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="528" spans="4:4" ht="14.25" customHeight="1">
       <c r="D528" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="529" spans="4:4" ht="14.25" customHeight="1">
       <c r="D529" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="530" spans="4:4" ht="14.25" customHeight="1">
       <c r="D530" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="531" spans="4:4" ht="14.25" customHeight="1">
       <c r="D531" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="532" spans="4:4" ht="14.25" customHeight="1">
       <c r="D532" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="533" spans="4:4" ht="14.25" customHeight="1">
       <c r="D533" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="534" spans="4:4" ht="14.25" customHeight="1">
       <c r="D534" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="535" spans="4:4" ht="14.25" customHeight="1">
       <c r="D535" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="536" spans="4:4" ht="14.25" customHeight="1">
       <c r="D536" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="537" spans="4:4" ht="14.25" customHeight="1">
       <c r="D537" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="538" spans="4:4" ht="14.25" customHeight="1">
       <c r="D538" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="539" spans="4:4" ht="14.25" customHeight="1">
       <c r="D539" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="540" spans="4:4" ht="14.25" customHeight="1">
       <c r="D540" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="541" spans="4:4" ht="14.25" customHeight="1">
       <c r="D541" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="542" spans="4:4" ht="14.25" customHeight="1">
       <c r="D542" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="543" spans="4:4" ht="14.25" customHeight="1">
       <c r="D543" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="544" spans="4:4" ht="14.25" customHeight="1">
       <c r="D544" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="545" spans="4:4" ht="14.25" customHeight="1">
       <c r="D545" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="546" spans="4:4" ht="14.25" customHeight="1">
       <c r="D546" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="547" spans="4:4" ht="14.25" customHeight="1">
       <c r="D547" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="548" spans="4:4" ht="14.25" customHeight="1">
       <c r="D548" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="549" spans="4:4" ht="14.25" customHeight="1">
       <c r="D549" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="550" spans="4:4" ht="14.25" customHeight="1">
       <c r="D550" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="551" spans="4:4" ht="14.25" customHeight="1">
       <c r="D551" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="552" spans="4:4" ht="14.25" customHeight="1">
       <c r="D552" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="553" spans="4:4" ht="14.25" customHeight="1">
       <c r="D553" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="554" spans="4:4" ht="14.25" customHeight="1">
       <c r="D554" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="555" spans="4:4" ht="14.25" customHeight="1">
       <c r="D555" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="556" spans="4:4" ht="14.25" customHeight="1">
       <c r="D556" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="557" spans="4:4" ht="14.25" customHeight="1">
       <c r="D557" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="558" spans="4:4" ht="14.25" customHeight="1">
       <c r="D558" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="559" spans="4:4" ht="14.25" customHeight="1">
       <c r="D559" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="560" spans="4:4" ht="14.25" customHeight="1">
       <c r="D560" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="561" spans="4:4" ht="14.25" customHeight="1">
       <c r="D561" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="562" spans="4:4" ht="14.25" customHeight="1">
       <c r="D562" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="563" spans="4:4" ht="14.25" customHeight="1">
       <c r="D563" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="564" spans="4:4" ht="14.25" customHeight="1">
       <c r="D564" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="565" spans="4:4" ht="14.25" customHeight="1">
       <c r="D565" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="566" spans="4:4" ht="14.25" customHeight="1">
       <c r="D566" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="567" spans="4:4" ht="14.25" customHeight="1">
       <c r="D567" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="568" spans="4:4" ht="14.25" customHeight="1">
       <c r="D568" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="569" spans="4:4" ht="14.25" customHeight="1">
       <c r="D569" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="570" spans="4:4" ht="14.25" customHeight="1">
       <c r="D570" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="571" spans="4:4" ht="14.25" customHeight="1">
       <c r="D571" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="572" spans="4:4" ht="14.25" customHeight="1">
       <c r="D572" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="573" spans="4:4" ht="14.25" customHeight="1">
       <c r="D573" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="574" spans="4:4" ht="14.25" customHeight="1">
       <c r="D574" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="575" spans="4:4" ht="14.25" customHeight="1">
       <c r="D575" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="576" spans="4:4" ht="14.25" customHeight="1">
       <c r="D576" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="577" spans="4:4" ht="14.25" customHeight="1">
       <c r="D577" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="578" spans="4:4" ht="14.25" customHeight="1">
       <c r="D578" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="579" spans="4:4" ht="14.25" customHeight="1">
       <c r="D579" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="580" spans="4:4" ht="14.25" customHeight="1">
       <c r="D580" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="581" spans="4:4" ht="14.25" customHeight="1">
       <c r="D581" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="582" spans="4:4" ht="14.25" customHeight="1">
       <c r="D582" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="583" spans="4:4" ht="14.25" customHeight="1">
       <c r="D583" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="584" spans="4:4" ht="14.25" customHeight="1">
       <c r="D584" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="585" spans="4:4" ht="14.25" customHeight="1">
       <c r="D585" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="586" spans="4:4" ht="14.25" customHeight="1">
       <c r="D586" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="587" spans="4:4" ht="14.25" customHeight="1">
       <c r="D587" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="588" spans="4:4" ht="14.25" customHeight="1">
       <c r="D588" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="589" spans="4:4" ht="14.25" customHeight="1">
       <c r="D589" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="590" spans="4:4" ht="14.25" customHeight="1">
       <c r="D590" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="591" spans="4:4" ht="14.25" customHeight="1">
       <c r="D591" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="592" spans="4:4" ht="14.25" customHeight="1">
       <c r="D592" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="593" spans="4:4" ht="14.25" customHeight="1">
       <c r="D593" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="594" spans="4:4" ht="14.25" customHeight="1">
       <c r="D594" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="595" spans="4:4" ht="14.25" customHeight="1">
       <c r="D595" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="596" spans="4:4" ht="14.25" customHeight="1">
       <c r="D596" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="597" spans="4:4" ht="14.25" customHeight="1">
       <c r="D597" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="598" spans="4:4" ht="14.25" customHeight="1">
       <c r="D598" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="599" spans="4:4" ht="14.25" customHeight="1">
       <c r="D599" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="600" spans="4:4" ht="14.25" customHeight="1">
       <c r="D600" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="601" spans="4:4" ht="14.25" customHeight="1">
       <c r="D601" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="602" spans="4:4" ht="14.25" customHeight="1">
       <c r="D602" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="603" spans="4:4" ht="14.25" customHeight="1">
       <c r="D603" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="604" spans="4:4" ht="14.25" customHeight="1">
       <c r="D604" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="605" spans="4:4" ht="14.25" customHeight="1">
       <c r="D605" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="606" spans="4:4" ht="14.25" customHeight="1">
       <c r="D606" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="607" spans="4:4" ht="14.25" customHeight="1">
       <c r="D607" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="608" spans="4:4" ht="14.25" customHeight="1">
       <c r="D608" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="609" spans="4:4" ht="14.25" customHeight="1">
       <c r="D609" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="610" spans="4:4" ht="14.25" customHeight="1">
       <c r="D610" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="611" spans="4:4" ht="14.25" customHeight="1">
       <c r="D611" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="612" spans="4:4" ht="14.25" customHeight="1">
       <c r="D612" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="613" spans="4:4" ht="14.25" customHeight="1">
       <c r="D613" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="614" spans="4:4" ht="14.25" customHeight="1">
       <c r="D614" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="615" spans="4:4" ht="14.25" customHeight="1">
       <c r="D615" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="616" spans="4:4" ht="14.25" customHeight="1">
       <c r="D616" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="617" spans="4:4" ht="14.25" customHeight="1">
       <c r="D617" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="618" spans="4:4" ht="14.25" customHeight="1">
       <c r="D618" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="619" spans="4:4" ht="14.25" customHeight="1">
       <c r="D619" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="620" spans="4:4" ht="14.25" customHeight="1">
       <c r="D620" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="621" spans="4:4" ht="14.25" customHeight="1">
       <c r="D621" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="622" spans="4:4" ht="14.25" customHeight="1">
       <c r="D622" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="623" spans="4:4" ht="14.25" customHeight="1">
       <c r="D623" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="624" spans="4:4" ht="14.25" customHeight="1">
       <c r="D624" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="625" spans="4:4" ht="14.25" customHeight="1">
       <c r="D625" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="626" spans="4:4" ht="14.25" customHeight="1">
       <c r="D626" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="627" spans="4:4" ht="14.25" customHeight="1">
       <c r="D627" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="628" spans="4:4" ht="14.25" customHeight="1">
       <c r="D628" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="629" spans="4:4" ht="14.25" customHeight="1">
       <c r="D629" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="630" spans="4:4" ht="14.25" customHeight="1">
       <c r="D630" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="631" spans="4:4" ht="14.25" customHeight="1">
       <c r="D631" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="632" spans="4:4" ht="14.25" customHeight="1">
       <c r="D632" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="633" spans="4:4" ht="14.25" customHeight="1">
       <c r="D633" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="634" spans="4:4" ht="14.25" customHeight="1">
       <c r="D634" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="635" spans="4:4" ht="14.25" customHeight="1">
       <c r="D635" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="636" spans="4:4" ht="14.25" customHeight="1">
       <c r="D636" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="637" spans="4:4" ht="14.25" customHeight="1">
       <c r="D637" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="638" spans="4:4" ht="14.25" customHeight="1">
       <c r="D638" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="639" spans="4:4" ht="14.25" customHeight="1">
       <c r="D639" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="640" spans="4:4" ht="14.25" customHeight="1">
       <c r="D640" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="641" spans="4:4" ht="14.25" customHeight="1">
       <c r="D641" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="642" spans="4:4" ht="14.25" customHeight="1">
       <c r="D642" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="643" spans="4:4" ht="14.25" customHeight="1">
       <c r="D643" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="644" spans="4:4" ht="14.25" customHeight="1">
       <c r="D644" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="645" spans="4:4" ht="14.25" customHeight="1">
       <c r="D645" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="646" spans="4:4" ht="14.25" customHeight="1">
       <c r="D646" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="647" spans="4:4" ht="14.25" customHeight="1">
       <c r="D647" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="648" spans="4:4" ht="14.25" customHeight="1">
       <c r="D648" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="649" spans="4:4" ht="14.25" customHeight="1">
       <c r="D649" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="650" spans="4:4" ht="14.25" customHeight="1">
       <c r="D650" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="651" spans="4:4" ht="14.25" customHeight="1">
       <c r="D651" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="652" spans="4:4" ht="14.25" customHeight="1">
       <c r="D652" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="653" spans="4:4" ht="14.25" customHeight="1">
       <c r="D653" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="654" spans="4:4" ht="14.25" customHeight="1">
       <c r="D654" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="655" spans="4:4" ht="14.25" customHeight="1">
       <c r="D655" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="656" spans="4:4" ht="14.25" customHeight="1">
       <c r="D656" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="657" spans="4:4" ht="14.25" customHeight="1">
       <c r="D657" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="658" spans="4:4" ht="14.25" customHeight="1">
       <c r="D658" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="659" spans="4:4" ht="14.25" customHeight="1">
       <c r="D659" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="660" spans="4:4" ht="14.25" customHeight="1">
       <c r="D660" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="661" spans="4:4" ht="14.25" customHeight="1">
       <c r="D661" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="662" spans="4:4" ht="14.25" customHeight="1">
       <c r="D662" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="663" spans="4:4" ht="14.25" customHeight="1">
       <c r="D663" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="664" spans="4:4" ht="14.25" customHeight="1">
       <c r="D664" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="665" spans="4:4" ht="14.25" customHeight="1">
       <c r="D665" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="666" spans="4:4" ht="14.25" customHeight="1">
       <c r="D666" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="667" spans="4:4" ht="14.25" customHeight="1">
       <c r="D667" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="668" spans="4:4" ht="14.25" customHeight="1">
       <c r="D668" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="669" spans="4:4" ht="14.25" customHeight="1">
       <c r="D669" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="670" spans="4:4" ht="14.25" customHeight="1">
       <c r="D670" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="671" spans="4:4" ht="14.25" customHeight="1">
       <c r="D671" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="672" spans="4:4" ht="14.25" customHeight="1">
       <c r="D672" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="673" spans="4:4" ht="14.25" customHeight="1">
       <c r="D673" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="674" spans="4:4" ht="14.25" customHeight="1">
       <c r="D674" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="675" spans="4:4" ht="14.25" customHeight="1">
       <c r="D675" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="676" spans="4:4" ht="14.25" customHeight="1">
       <c r="D676" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="677" spans="4:4" ht="14.25" customHeight="1">
       <c r="D677" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="678" spans="4:4" ht="14.25" customHeight="1">
       <c r="D678" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="679" spans="4:4" ht="14.25" customHeight="1">
       <c r="D679" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="680" spans="4:4" ht="14.25" customHeight="1">
       <c r="D680" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="681" spans="4:4" ht="14.25" customHeight="1">
       <c r="D681" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="682" spans="4:4" ht="14.25" customHeight="1">
       <c r="D682" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="683" spans="4:4" ht="14.25" customHeight="1">
       <c r="D683" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="684" spans="4:4" ht="14.25" customHeight="1">
       <c r="D684" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="685" spans="4:4" ht="14.25" customHeight="1">
       <c r="D685" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="686" spans="4:4" ht="14.25" customHeight="1">
       <c r="D686" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="687" spans="4:4" ht="14.25" customHeight="1">
       <c r="D687" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="688" spans="4:4" ht="14.25" customHeight="1">
       <c r="D688" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="689" spans="4:4" ht="14.25" customHeight="1">
       <c r="D689" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="690" spans="4:4" ht="14.25" customHeight="1">
       <c r="D690" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="691" spans="4:4" ht="14.25" customHeight="1">
       <c r="D691" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="692" spans="4:4" ht="14.25" customHeight="1">
       <c r="D692" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="693" spans="4:4" ht="14.25" customHeight="1">
       <c r="D693" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="694" spans="4:4" ht="14.25" customHeight="1">
       <c r="D694" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="695" spans="4:4" ht="14.25" customHeight="1">
       <c r="D695" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="696" spans="4:4" ht="14.25" customHeight="1">
       <c r="D696" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="697" spans="4:4" ht="14.25" customHeight="1">
       <c r="D697" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="698" spans="4:4" ht="14.25" customHeight="1">
       <c r="D698" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="699" spans="4:4" ht="14.25" customHeight="1">
       <c r="D699" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="700" spans="4:4" ht="14.25" customHeight="1">
       <c r="D700" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="701" spans="4:4" ht="14.25" customHeight="1">
       <c r="D701" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="702" spans="4:4" ht="14.25" customHeight="1">
       <c r="D702" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="703" spans="4:4" ht="14.25" customHeight="1">
       <c r="D703" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="704" spans="4:4" ht="14.25" customHeight="1">
       <c r="D704" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="705" spans="4:4" ht="14.25" customHeight="1">
       <c r="D705" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="706" spans="4:4" ht="14.25" customHeight="1">
       <c r="D706" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="707" spans="4:4" ht="14.25" customHeight="1">
       <c r="D707" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="708" spans="4:4" ht="14.25" customHeight="1">
       <c r="D708" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="709" spans="4:4" ht="14.25" customHeight="1">
       <c r="D709" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="710" spans="4:4" ht="14.25" customHeight="1">
       <c r="D710" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="711" spans="4:4" ht="14.25" customHeight="1">
       <c r="D711" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="712" spans="4:4" ht="14.25" customHeight="1">
       <c r="D712" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="713" spans="4:4" ht="14.25" customHeight="1">
       <c r="D713" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="714" spans="4:4" ht="14.25" customHeight="1">
       <c r="D714" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="715" spans="4:4" ht="14.25" customHeight="1">
       <c r="D715" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="716" spans="4:4" ht="14.25" customHeight="1">
       <c r="D716" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="717" spans="4:4" ht="14.25" customHeight="1">
       <c r="D717" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="718" spans="4:4" ht="14.25" customHeight="1">
       <c r="D718" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="719" spans="4:4" ht="14.25" customHeight="1">
       <c r="D719" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="720" spans="4:4" ht="14.25" customHeight="1">
       <c r="D720" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="721" spans="4:4" ht="14.25" customHeight="1">
       <c r="D721" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="722" spans="4:4" ht="14.25" customHeight="1">
       <c r="D722" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="723" spans="4:4" ht="14.25" customHeight="1">
       <c r="D723" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="724" spans="4:4" ht="14.25" customHeight="1">
       <c r="D724" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="725" spans="4:4" ht="14.25" customHeight="1">
       <c r="D725" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="726" spans="4:4" ht="14.25" customHeight="1">
       <c r="D726" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="727" spans="4:4" ht="14.25" customHeight="1">
       <c r="D727" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="728" spans="4:4" ht="14.25" customHeight="1">
       <c r="D728" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="729" spans="4:4" ht="14.25" customHeight="1">
       <c r="D729" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="730" spans="4:4" ht="14.25" customHeight="1">
       <c r="D730" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="731" spans="4:4" ht="14.25" customHeight="1">
       <c r="D731" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="732" spans="4:4" ht="14.25" customHeight="1">
       <c r="D732" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="733" spans="4:4" ht="14.25" customHeight="1">
       <c r="D733" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="734" spans="4:4" ht="14.25" customHeight="1">
       <c r="D734" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="735" spans="4:4" ht="14.25" customHeight="1">
       <c r="D735" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="736" spans="4:4" ht="14.25" customHeight="1">
       <c r="D736" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="737" spans="4:4" ht="14.25" customHeight="1">
       <c r="D737" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="738" spans="4:4" ht="14.25" customHeight="1">
       <c r="D738" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="739" spans="4:4" ht="14.25" customHeight="1">
       <c r="D739" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="740" spans="4:4" ht="14.25" customHeight="1">
       <c r="D740" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="741" spans="4:4" ht="14.25" customHeight="1">
       <c r="D741" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="742" spans="4:4" ht="14.25" customHeight="1">
       <c r="D742" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="743" spans="4:4" ht="14.25" customHeight="1">
       <c r="D743" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="744" spans="4:4" ht="14.25" customHeight="1">
       <c r="D744" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="745" spans="4:4" ht="14.25" customHeight="1">
       <c r="D745" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="746" spans="4:4" ht="14.25" customHeight="1">
       <c r="D746" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="747" spans="4:4" ht="14.25" customHeight="1">
       <c r="D747" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="748" spans="4:4" ht="14.25" customHeight="1">
       <c r="D748" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="749" spans="4:4" ht="14.25" customHeight="1">
       <c r="D749" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="750" spans="4:4" ht="14.25" customHeight="1">
       <c r="D750" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="751" spans="4:4" ht="14.25" customHeight="1">
       <c r="D751" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="752" spans="4:4" ht="14.25" customHeight="1">
       <c r="D752" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="753" spans="4:4" ht="14.25" customHeight="1">
       <c r="D753" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="754" spans="4:4" ht="14.25" customHeight="1">
       <c r="D754" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="755" spans="4:4" ht="14.25" customHeight="1">
       <c r="D755" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="756" spans="4:4" ht="14.25" customHeight="1">
       <c r="D756" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="757" spans="4:4" ht="14.25" customHeight="1">
       <c r="D757" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="758" spans="4:4" ht="14.25" customHeight="1">
       <c r="D758" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="759" spans="4:4" ht="14.25" customHeight="1">
       <c r="D759" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="760" spans="4:4" ht="14.25" customHeight="1">
       <c r="D760" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="761" spans="4:4" ht="14.25" customHeight="1">
       <c r="D761" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="762" spans="4:4" ht="14.25" customHeight="1">
       <c r="D762" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="763" spans="4:4" ht="14.25" customHeight="1">
       <c r="D763" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="764" spans="4:4" ht="14.25" customHeight="1">
       <c r="D764" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="765" spans="4:4" ht="14.25" customHeight="1">
       <c r="D765" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="766" spans="4:4" ht="14.25" customHeight="1">
       <c r="D766" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="767" spans="4:4" ht="14.25" customHeight="1">
       <c r="D767" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="768" spans="4:4" ht="14.25" customHeight="1">
       <c r="D768" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="769" spans="4:4" ht="14.25" customHeight="1">
       <c r="D769" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="770" spans="4:4" ht="14.25" customHeight="1">
       <c r="D770" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="771" spans="4:4" ht="14.25" customHeight="1">
       <c r="D771" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="772" spans="4:4" ht="14.25" customHeight="1">
       <c r="D772" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="773" spans="4:4" ht="14.25" customHeight="1">
       <c r="D773" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="774" spans="4:4" ht="14.25" customHeight="1">
       <c r="D774" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="775" spans="4:4" ht="14.25" customHeight="1">
       <c r="D775" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="776" spans="4:4" ht="14.25" customHeight="1">
       <c r="D776" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="777" spans="4:4" ht="14.25" customHeight="1">
       <c r="D777" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="778" spans="4:4" ht="14.25" customHeight="1">
       <c r="D778" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="779" spans="4:4" ht="14.25" customHeight="1">
       <c r="D779" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="780" spans="4:4" ht="14.25" customHeight="1">
       <c r="D780" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="781" spans="4:4" ht="14.25" customHeight="1">
       <c r="D781" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="782" spans="4:4" ht="14.25" customHeight="1">
       <c r="D782" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="783" spans="4:4" ht="14.25" customHeight="1">
       <c r="D783" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="784" spans="4:4" ht="14.25" customHeight="1">
       <c r="D784" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="785" spans="4:4" ht="14.25" customHeight="1">
       <c r="D785" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="786" spans="4:4" ht="14.25" customHeight="1">
       <c r="D786" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="787" spans="4:4" ht="14.25" customHeight="1">
       <c r="D787" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="788" spans="4:4" ht="14.25" customHeight="1">
       <c r="D788" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="789" spans="4:4" ht="14.25" customHeight="1">
       <c r="D789" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="790" spans="4:4" ht="14.25" customHeight="1">
       <c r="D790" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="791" spans="4:4" ht="14.25" customHeight="1">
       <c r="D791" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="792" spans="4:4" ht="14.25" customHeight="1">
       <c r="D792" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="793" spans="4:4" ht="14.25" customHeight="1">
       <c r="D793" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="794" spans="4:4" ht="14.25" customHeight="1">
       <c r="D794" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="795" spans="4:4" ht="14.25" customHeight="1">
       <c r="D795" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="796" spans="4:4" ht="14.25" customHeight="1">
       <c r="D796" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="797" spans="4:4" ht="14.25" customHeight="1">
       <c r="D797" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="798" spans="4:4" ht="14.25" customHeight="1">
       <c r="D798" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="799" spans="4:4" ht="14.25" customHeight="1">
       <c r="D799" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="800" spans="4:4" ht="14.25" customHeight="1">
       <c r="D800" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="801" spans="4:4" ht="14.25" customHeight="1">
       <c r="D801" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="802" spans="4:4" ht="14.25" customHeight="1">
       <c r="D802" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="803" spans="4:4" ht="14.25" customHeight="1">
       <c r="D803" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="804" spans="4:4" ht="14.25" customHeight="1">
       <c r="D804" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="805" spans="4:4" ht="14.25" customHeight="1">
       <c r="D805" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="806" spans="4:4" ht="14.25" customHeight="1">
       <c r="D806" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="807" spans="4:4" ht="14.25" customHeight="1">
       <c r="D807" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="808" spans="4:4" ht="14.25" customHeight="1">
       <c r="D808" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="809" spans="4:4" ht="14.25" customHeight="1">
       <c r="D809" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="810" spans="4:4" ht="14.25" customHeight="1">
       <c r="D810" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="811" spans="4:4" ht="14.25" customHeight="1">
       <c r="D811" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="812" spans="4:4" ht="14.25" customHeight="1">
       <c r="D812" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="813" spans="4:4" ht="14.25" customHeight="1">
       <c r="D813" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="814" spans="4:4" ht="14.25" customHeight="1">
       <c r="D814" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="815" spans="4:4" ht="14.25" customHeight="1">
       <c r="D815" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="816" spans="4:4" ht="14.25" customHeight="1">
       <c r="D816" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="817" spans="4:4" ht="14.25" customHeight="1">
       <c r="D817" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="818" spans="4:4" ht="14.25" customHeight="1">
       <c r="D818" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="819" spans="4:4" ht="14.25" customHeight="1">
       <c r="D819" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="820" spans="4:4" ht="14.25" customHeight="1">
       <c r="D820" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="821" spans="4:4" ht="14.25" customHeight="1">
       <c r="D821" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="822" spans="4:4" ht="14.25" customHeight="1">
       <c r="D822" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="823" spans="4:4" ht="14.25" customHeight="1">
       <c r="D823" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="824" spans="4:4" ht="14.25" customHeight="1">
       <c r="D824" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="825" spans="4:4" ht="14.25" customHeight="1">
       <c r="D825" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="826" spans="4:4" ht="14.25" customHeight="1">
       <c r="D826" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="827" spans="4:4" ht="14.25" customHeight="1">
       <c r="D827" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="828" spans="4:4" ht="14.25" customHeight="1">
       <c r="D828" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="829" spans="4:4" ht="14.25" customHeight="1">
       <c r="D829" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="830" spans="4:4" ht="14.25" customHeight="1">
       <c r="D830" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="831" spans="4:4" ht="14.25" customHeight="1">
       <c r="D831" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="832" spans="4:4" ht="14.25" customHeight="1">
       <c r="D832" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="833" spans="4:4" ht="14.25" customHeight="1">
       <c r="D833" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="834" spans="4:4" ht="14.25" customHeight="1">
       <c r="D834" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="835" spans="4:4" ht="14.25" customHeight="1">
       <c r="D835" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="836" spans="4:4" ht="14.25" customHeight="1">
       <c r="D836" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="837" spans="4:4" ht="14.25" customHeight="1">
       <c r="D837" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="838" spans="4:4" ht="14.25" customHeight="1">
       <c r="D838" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="839" spans="4:4" ht="14.25" customHeight="1">
       <c r="D839" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="840" spans="4:4" ht="14.25" customHeight="1">
       <c r="D840" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="841" spans="4:4" ht="14.25" customHeight="1">
       <c r="D841" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="842" spans="4:4" ht="14.25" customHeight="1">
       <c r="D842" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="843" spans="4:4" ht="14.25" customHeight="1">
       <c r="D843" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="844" spans="4:4" ht="14.25" customHeight="1">
       <c r="D844" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="845" spans="4:4" ht="14.25" customHeight="1">
       <c r="D845" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="846" spans="4:4" ht="14.25" customHeight="1">
       <c r="D846" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="847" spans="4:4" ht="14.25" customHeight="1">
       <c r="D847" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="848" spans="4:4" ht="14.25" customHeight="1">
       <c r="D848" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="849" spans="4:4" ht="14.25" customHeight="1">
       <c r="D849" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="850" spans="4:4" ht="14.25" customHeight="1">
       <c r="D850" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="851" spans="4:4" ht="14.25" customHeight="1">
       <c r="D851" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="852" spans="4:4" ht="14.25" customHeight="1">
       <c r="D852" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="853" spans="4:4" ht="14.25" customHeight="1">
       <c r="D853" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="854" spans="4:4" ht="14.25" customHeight="1">
       <c r="D854" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="855" spans="4:4" ht="14.25" customHeight="1">
       <c r="D855" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="856" spans="4:4" ht="14.25" customHeight="1">
       <c r="D856" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="857" spans="4:4" ht="14.25" customHeight="1">
       <c r="D857" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="858" spans="4:4" ht="14.25" customHeight="1">
       <c r="D858" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="859" spans="4:4" ht="14.25" customHeight="1">
       <c r="D859" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="860" spans="4:4" ht="14.25" customHeight="1">
       <c r="D860" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="861" spans="4:4" ht="14.25" customHeight="1">
       <c r="D861" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="862" spans="4:4" ht="14.25" customHeight="1">
       <c r="D862" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="863" spans="4:4" ht="14.25" customHeight="1">
       <c r="D863" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="864" spans="4:4" ht="14.25" customHeight="1">
       <c r="D864" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="865" spans="4:4" ht="14.25" customHeight="1">
       <c r="D865" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="866" spans="4:4" ht="14.25" customHeight="1">
       <c r="D866" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="867" spans="4:4" ht="14.25" customHeight="1">
       <c r="D867" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="868" spans="4:4" ht="14.25" customHeight="1">
       <c r="D868" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="869" spans="4:4" ht="14.25" customHeight="1">
       <c r="D869" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="870" spans="4:4" ht="14.25" customHeight="1">
       <c r="D870" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="871" spans="4:4" ht="14.25" customHeight="1">
       <c r="D871" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="872" spans="4:4" ht="14.25" customHeight="1">
       <c r="D872" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="873" spans="4:4" ht="14.25" customHeight="1">
       <c r="D873" s="22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="874" spans="4:4" ht="14.25" customHeight="1">
       <c r="D874" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="875" spans="4:4" ht="14.25" customHeight="1">
       <c r="D875" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="876" spans="4:4" ht="14.25" customHeight="1">
       <c r="D876" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="877" spans="4:4" ht="14.25" customHeight="1">
       <c r="D877" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="878" spans="4:4" ht="14.25" customHeight="1">
       <c r="D878" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="879" spans="4:4" ht="14.25" customHeight="1">
       <c r="D879" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="880" spans="4:4" ht="14.25" customHeight="1">
       <c r="D880" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="881" spans="4:4" ht="14.25" customHeight="1">
       <c r="D881" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="882" spans="4:4" ht="14.25" customHeight="1">
       <c r="D882" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="883" spans="4:4" ht="14.25" customHeight="1">
       <c r="D883" s="22" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="884" spans="4:4" ht="14.25" customHeight="1">
       <c r="D884" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="885" spans="4:4" ht="14.25" customHeight="1">
       <c r="D885" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="886" spans="4:4" ht="14.25" customHeight="1">
       <c r="D886" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="887" spans="4:4" ht="14.25" customHeight="1">
       <c r="D887" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="888" spans="4:4" ht="14.25" customHeight="1">
       <c r="D888" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="889" spans="4:4" ht="14.25" customHeight="1">
       <c r="D889" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="890" spans="4:4" ht="14.25" customHeight="1">
       <c r="D890" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="891" spans="4:4" ht="14.25" customHeight="1">
       <c r="D891" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="892" spans="4:4" ht="14.25" customHeight="1">
       <c r="D892" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="893" spans="4:4" ht="14.25" customHeight="1">
       <c r="D893" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="894" spans="4:4" ht="14.25" customHeight="1">
       <c r="D894" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="895" spans="4:4" ht="14.25" customHeight="1">
       <c r="D895" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="896" spans="4:4" ht="14.25" customHeight="1">
       <c r="D896" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="897" spans="4:4" ht="14.25" customHeight="1">
       <c r="D897" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="898" spans="4:4" ht="14.25" customHeight="1">
       <c r="D898" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="899" spans="4:4" ht="14.25" customHeight="1">
       <c r="D899" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="900" spans="4:4" ht="14.25" customHeight="1">
       <c r="D900" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="901" spans="4:4" ht="14.25" customHeight="1">
       <c r="D901" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="902" spans="4:4" ht="14.25" customHeight="1">
       <c r="D902" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="903" spans="4:4" ht="14.25" customHeight="1">
       <c r="D903" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="904" spans="4:4" ht="14.25" customHeight="1">
       <c r="D904" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="905" spans="4:4" ht="14.25" customHeight="1">
       <c r="D905" s="21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="906" spans="4:4" ht="14.25" customHeight="1">
       <c r="D906" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="907" spans="4:4" ht="14.25" customHeight="1">
       <c r="D907" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="908" spans="4:4" ht="14.25" customHeight="1">
       <c r="D908" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="909" spans="4:4" ht="14.25" customHeight="1">
       <c r="D909" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="910" spans="4:4" ht="14.25" customHeight="1">
       <c r="D910" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="911" spans="4:4" ht="14.25" customHeight="1">
       <c r="D911" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="912" spans="4:4" ht="14.25" customHeight="1">
       <c r="D912" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="913" spans="4:4" ht="14.25" customHeight="1">
       <c r="D913" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="914" spans="4:4" ht="14.25" customHeight="1">
       <c r="D914" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="915" spans="4:4" ht="14.25" customHeight="1">
       <c r="D915" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="916" spans="4:4" ht="14.25" customHeight="1">
       <c r="D916" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="917" spans="4:4" ht="14.25" customHeight="1">
       <c r="D917" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="918" spans="4:4" ht="14.25" customHeight="1">
       <c r="D918" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="919" spans="4:4" ht="14.25" customHeight="1">
       <c r="D919" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="920" spans="4:4" ht="14.25" customHeight="1">
       <c r="D920" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="921" spans="4:4" ht="14.25" customHeight="1">
       <c r="D921" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="922" spans="4:4" ht="14.25" customHeight="1">
       <c r="D922" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="923" spans="4:4" ht="14.25" customHeight="1">
       <c r="D923" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="924" spans="4:4" ht="14.25" customHeight="1">
       <c r="D924" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="925" spans="4:4" ht="14.25" customHeight="1">
       <c r="D925" s="22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="926" spans="4:4" ht="14.25" customHeight="1">
       <c r="D926" s="22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="927" spans="4:4" ht="14.25" customHeight="1">
       <c r="D927" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="928" spans="4:4" ht="14.25" customHeight="1">
       <c r="D928" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="929" spans="4:4" ht="14.25" customHeight="1">
       <c r="D929" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="930" spans="4:4" ht="14.25" customHeight="1">
       <c r="D930" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="931" spans="4:4" ht="14.25" customHeight="1">
       <c r="D931" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="932" spans="4:4" ht="14.25" customHeight="1">
       <c r="D932" s="22" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="933" spans="4:4" ht="14.25" customHeight="1">
       <c r="D933" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="934" spans="4:4" ht="14.25" customHeight="1">
       <c r="D934" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="935" spans="4:4" ht="14.25" customHeight="1">
       <c r="D935" s="22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="936" spans="4:4" ht="14.25" customHeight="1">
       <c r="D936" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="937" spans="4:4" ht="14.25" customHeight="1">
       <c r="D937" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="938" spans="4:4" ht="14.25" customHeight="1">
       <c r="D938" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="939" spans="4:4" ht="14.25" customHeight="1">
       <c r="D939" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="940" spans="4:4" ht="14.25" customHeight="1">
       <c r="D940" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="941" spans="4:4" ht="14.25" customHeight="1">
       <c r="D941" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="942" spans="4:4" ht="14.25" customHeight="1">
       <c r="D942" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="943" spans="4:4" ht="14.25" customHeight="1">
       <c r="D943" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="944" spans="4:4" ht="14.25" customHeight="1">
       <c r="D944" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="945" spans="4:4" ht="14.25" customHeight="1">
       <c r="D945" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="946" spans="4:4" ht="14.25" customHeight="1">
       <c r="D946" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="947" spans="4:4" ht="14.25" customHeight="1">
       <c r="D947" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="948" spans="4:4" ht="14.25" customHeight="1">
       <c r="D948" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="949" spans="4:4" ht="14.25" customHeight="1">
       <c r="D949" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="950" spans="4:4" ht="14.25" customHeight="1">
       <c r="D950" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="951" spans="4:4" ht="14.25" customHeight="1">
       <c r="D951" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="952" spans="4:4" ht="14.25" customHeight="1">
       <c r="D952" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="953" spans="4:4" ht="14.25" customHeight="1">
       <c r="D953" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="954" spans="4:4" ht="14.25" customHeight="1">
       <c r="D954" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="955" spans="4:4" ht="14.25" customHeight="1">
       <c r="D955" s="21" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="956" spans="4:4" ht="14.25" customHeight="1">
       <c r="D956" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="957" spans="4:4" ht="14.25" customHeight="1">
       <c r="D957" s="22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="958" spans="4:4" ht="14.25" customHeight="1">
       <c r="D958" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="959" spans="4:4" ht="14.25" customHeight="1">
       <c r="D959" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="960" spans="4:4" ht="14.25" customHeight="1">
       <c r="D960" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="961" spans="4:4" ht="14.25" customHeight="1">
       <c r="D961" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="962" spans="4:4" ht="14.25" customHeight="1">
       <c r="D962" s="22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="963" spans="4:4" ht="14.25" customHeight="1">
       <c r="D963" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="964" spans="4:4" ht="14.25" customHeight="1">
       <c r="D964" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="965" spans="4:4" ht="14.25" customHeight="1">
       <c r="D965" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="966" spans="4:4" ht="14.25" customHeight="1">
       <c r="D966" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="967" spans="4:4" ht="14.25" customHeight="1">
       <c r="D967" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="968" spans="4:4" ht="14.25" customHeight="1">
       <c r="D968" s="21" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="969" spans="4:4" ht="14.25" customHeight="1">
       <c r="D969" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="970" spans="4:4" ht="14.25" customHeight="1">
       <c r="D970" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="971" spans="4:4" ht="14.25" customHeight="1">
       <c r="D971" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="972" spans="4:4" ht="14.25" customHeight="1">
       <c r="D972" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="973" spans="4:4" ht="14.25" customHeight="1">
       <c r="D973" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="974" spans="4:4" ht="14.25" customHeight="1">
       <c r="D974" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="975" spans="4:4" ht="14.25" customHeight="1">
       <c r="D975" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="976" spans="4:4" ht="14.25" customHeight="1">
       <c r="D976" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="977" spans="4:4" ht="14.25" customHeight="1">
       <c r="D977" s="21" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="978" spans="4:4" ht="14.25" customHeight="1">
       <c r="D978" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="979" spans="4:4" ht="14.25" customHeight="1">
       <c r="D979" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="980" spans="4:4" ht="14.25" customHeight="1">
       <c r="D980" s="21" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="981" spans="4:4" ht="14.25" customHeight="1">
       <c r="D981" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="982" spans="4:4" ht="14.25" customHeight="1">
       <c r="D982" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="983" spans="4:4" ht="14.25" customHeight="1">
       <c r="D983" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="984" spans="4:4" ht="14.25" customHeight="1">
       <c r="D984" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="985" spans="4:4" ht="14.25" customHeight="1">
       <c r="D985" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="986" spans="4:4" ht="14.25" customHeight="1">
       <c r="D986" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="987" spans="4:4" ht="14.25" customHeight="1">
       <c r="D987" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="988" spans="4:4" ht="14.25" customHeight="1">
       <c r="D988" s="21" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="989" spans="4:4" ht="14.25" customHeight="1">
       <c r="D989" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="990" spans="4:4" ht="14.25" customHeight="1">
       <c r="D990" s="21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="991" spans="4:4" ht="14.25" customHeight="1">
       <c r="D991" s="22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="992" spans="4:4" ht="14.25" customHeight="1">
       <c r="D992" s="22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="993" spans="4:4" ht="14.25" customHeight="1">
       <c r="D993" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="994" spans="4:4" ht="14.25" customHeight="1">
       <c r="D994" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="995" spans="4:4" ht="14.25" customHeight="1">
       <c r="D995" s="22" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="996" spans="4:4" ht="14.25" customHeight="1">
       <c r="D996" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="997" spans="4:4" ht="14.25" customHeight="1">
       <c r="D997" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="998" spans="4:4" ht="14.25" customHeight="1">
       <c r="D998" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="999" spans="4:4" ht="14.25" customHeight="1">
       <c r="D999" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1000" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1000" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1001" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1001" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1002" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1002" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1003" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1003" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1004" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1004" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1005" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1005" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1006" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1006" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1007" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1007" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1008" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1008" s="21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1009" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1009" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="1010" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1010" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1011" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1011" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1012" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1012" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1013" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1013" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1014" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1014" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1015" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1015" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1016" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1016" s="21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1017" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1017" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1018" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1018" s="22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1019" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1019" s="22" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1020" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1020" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1021" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1021" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1022" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1022" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1023" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1023" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1024" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1024" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1025" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1025" s="21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1026" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1026" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1027" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1027" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1028" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1028" s="22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1029" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1029" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1030" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1030" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1031" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1031" s="22" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1032" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1032" s="22" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1033" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1033" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1034" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1034" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1035" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1035" s="22" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1036" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1036" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1037" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1037" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1038" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1038" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1039" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1039" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1040" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1040" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1041" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1041" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1042" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1042" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1043" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1043" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1044" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1044" s="22" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1045" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1045" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1046" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1046" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1047" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1047" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1048" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1048" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1049" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1049" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1050" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1050" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1051" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1051" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1052" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1052" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1053" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1053" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1054" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1054" s="22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1055" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1055" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1056" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1056" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1057" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1057" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1058" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1058" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1059" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1059" s="22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1060" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1060" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1061" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1061" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1062" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1062" s="22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1063" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1063" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1064" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1064" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1065" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1065" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1066" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1066" s="22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1067" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1067" s="22" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1068" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1068" s="21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1069" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1069" s="22" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1070" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1070" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1071" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1071" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1072" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1072" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1073" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1073" s="22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1074" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1074" s="22" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1075" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1075" s="21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1076" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1076" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1077" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1077" s="22" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1078" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1078" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1079" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1079" s="21" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1080" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1080" s="22" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1081" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1081" s="21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1082" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1082" s="22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1083" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1083" s="22" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1084" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1084" s="22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1085" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1085" s="21" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1086" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1086" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1087" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1087" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1088" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1088" s="22" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1089" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1089" s="22" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1090" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1090" s="22" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1091" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1091" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1092" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1092" s="22" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1093" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1093" s="22" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1094" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1094" s="22" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1095" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1095" s="22" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1096" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1096" s="21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1097" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1097" s="22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1098" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1098" s="21" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1099" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1099" s="22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1100" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1100" s="22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1101" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1101" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1102" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1102" s="21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1103" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1103" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1104" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1104" s="21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1105" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1105" s="21" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1106" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1106" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1107" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1107" s="22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1108" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1108" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1109" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1109" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1110" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1110" s="22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1111" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1111" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1112" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1112" s="21" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1113" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1113" s="22" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1114" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1114" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1115" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1115" s="22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1116" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1116" s="22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1117" spans="4:4" ht="14.25" customHeight="1">
       <c r="D1117" s="22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
